--- a/plots/countries/plot data/Japan.xlsx
+++ b/plots/countries/plot data/Japan.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>39.2806097463418</v>
+        <v>39.2930405418269</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>159.058320987797</v>
+        <v>159.048392215146</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>351.270123983495</v>
+        <v>350.537844881243</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>369.461547971999</v>
+        <v>369.45875166586</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>107.441656675497</v>
+        <v>107.413742338651</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-72.7079075687932</v>
+        <v>-76.646195877157</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>31.0709785189141</v>
+        <v>29.3773393173221</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>38.8967217462937</v>
+        <v>38.9094944298923</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>160.320504723245</v>
+        <v>160.310758242692</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>347.847437623442</v>
+        <v>347.193324642345</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>370.360520277486</v>
+        <v>370.357659979272</v>
       </c>
     </row>
     <row r="16">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>111.844176088651</v>
+        <v>111.816431510991</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-78.2787464805182</v>
+        <v>-82.705992423735</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>30.9334717461778</v>
+        <v>29.1582114181177</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>39.7660279720643</v>
+        <v>39.7792262135099</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>162.784925989137</v>
+        <v>162.768913759245</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>342.761774954246</v>
+        <v>341.545155028435</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>375.213772621574</v>
+        <v>375.210852307749</v>
       </c>
     </row>
     <row r="25">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>113.778733814957</v>
+        <v>113.747251313986</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-82.0863348723982</v>
+        <v>-85.6590269056316</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>31.9746546297732</v>
+        <v>29.8709157995359</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>39.7804201450437</v>
+        <v>39.7940462290087</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>169.906525735749</v>
+        <v>169.893585374097</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>343.768645867872</v>
+        <v>343.147681114973</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>357.959637687802</v>
+        <v>357.956631514542</v>
       </c>
     </row>
     <row r="34">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>115.7694718789</v>
+        <v>115.732398780723</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-85.3102807085937</v>
+        <v>-87.8178640252772</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>31.4570352539229</v>
+        <v>29.6536711810693</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>39.961055059607</v>
+        <v>39.9738095752823</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>168.426008166131</v>
+        <v>168.412006059387</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>352.688814543205</v>
+        <v>351.392992851301</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>392.397130558463</v>
+        <v>392.394038385841</v>
       </c>
     </row>
     <row r="43">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>122.574615662621</v>
+        <v>122.525701965669</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-85.2513043232571</v>
+        <v>-88.6530091852949</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>33.7884653055419</v>
+        <v>31.4376919163617</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>39.0342687862405</v>
+        <v>39.046764300811</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>176.416284098262</v>
+        <v>176.401969745129</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>359.568800342597</v>
+        <v>358.35047101611</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>380.147849067361</v>
+        <v>380.144670755452</v>
       </c>
     </row>
     <row r="52">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>131.844917605868</v>
+        <v>131.786474167768</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-85.0013426379245</v>
+        <v>-88.0041576554549</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>33.823281858233</v>
+        <v>31.7388608644098</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>38.1719454586815</v>
+        <v>38.1617442925585</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>175.320586308881</v>
+        <v>175.307518854614</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>362.947008575618</v>
+        <v>361.915626724791</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>382.725784427552</v>
+        <v>382.72251983643</v>
       </c>
     </row>
     <row r="61">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>134.02767579231</v>
+        <v>133.953794336943</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-86.1631138166108</v>
+        <v>-88.6456741926622</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>33.767396524621</v>
+        <v>31.9235564722944</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>38.2700447595498</v>
+        <v>38.2389455150244</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>176.218113034082</v>
+        <v>176.204368585191</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>358.999033151295</v>
+        <v>357.62674861813</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>378.58608078652</v>
+        <v>378.582136485643</v>
       </c>
     </row>
     <row r="70">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>131.078498694458</v>
+        <v>130.951054227452</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-86.9721090454765</v>
+        <v>-90.0674554009506</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>33.9943164932641</v>
+        <v>32.022278669479</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>37.0345622687359</v>
+        <v>36.9837992382495</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>181.60429920825</v>
+        <v>181.592155607384</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>334.176950006733</v>
+        <v>332.991544470166</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>366.116969231453</v>
+        <v>366.11327101281</v>
       </c>
     </row>
     <row r="79">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>118.810636658054</v>
+        <v>118.689155573608</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-87.1163925609782</v>
+        <v>-89.3107166929304</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>33.5681138539142</v>
+        <v>31.6070324523901</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>37.0895092206606</v>
+        <v>37.0187751875796</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>187.406311114138</v>
+        <v>187.394573657494</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>338.791782968775</v>
+        <v>337.762794971937</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>388.188587939239</v>
+        <v>388.184981991629</v>
       </c>
     </row>
     <row r="88">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>106.912524523798</v>
+        <v>106.783256159351</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-86.588701755021</v>
+        <v>-89.1587248379265</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>32.8187337135845</v>
+        <v>30.8112475924204</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>37.0484932127628</v>
+        <v>36.9583395363209</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>191.371076875297</v>
+        <v>191.357775693834</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>348.943478695773</v>
+        <v>347.546859949102</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>396.751256607761</v>
+        <v>396.747703656328</v>
       </c>
     </row>
     <row r="97">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>104.964847190917</v>
+        <v>104.850737695045</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-87.6623854417748</v>
+        <v>-91.0859650699213</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>32.4334386605882</v>
+        <v>30.1518682374823</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>36.260347260717</v>
+        <v>36.1676389799654</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>190.046003711332</v>
+        <v>190.019991000392</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>343.040035326839</v>
+        <v>341.713008960198</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>387.903230964639</v>
+        <v>387.900652392903</v>
       </c>
     </row>
     <row r="106">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>94.815830202681</v>
+        <v>94.6905576122132</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-88.3825935236332</v>
+        <v>-92.1405004333779</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>30.7005876903414</v>
+        <v>28.6368753830047</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>36.443273468665</v>
+        <v>36.354341798623</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>193.701039068275</v>
+        <v>193.673223483975</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>348.645735946561</v>
+        <v>347.171711590785</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>414.820419305383</v>
+        <v>414.818488884247</v>
       </c>
     </row>
     <row r="115">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>88.9563253382738</v>
+        <v>88.76190200819</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-90.0244521200607</v>
+        <v>-93.7366168689461</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>29.3961422699856</v>
+        <v>27.3412819493617</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>35.9459766713171</v>
+        <v>35.8531923694212</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>189.815244038922</v>
+        <v>189.788758515396</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>346.661089935966</v>
+        <v>345.003603696143</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>433.945697878072</v>
+        <v>433.941859118452</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>252.875938985083</v>
+        <v>252.875973053479</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>87.9243573182714</v>
+        <v>87.5703090630692</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-99.8150133724344</v>
+        <v>-104.244871072015</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>29.2367641444874</v>
+        <v>27.2634137208342</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>35.823277727191</v>
+        <v>35.7282219511425</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>194.722010697524</v>
+        <v>194.695352478961</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>346.15236781849</v>
+        <v>344.371830348885</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>431.653076334016</v>
+        <v>431.649050998846</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>246.651804149274</v>
+        <v>246.651854559997</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>85.3674973408864</v>
+        <v>84.7422347951665</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-96.4590455062374</v>
+        <v>-102.117474702717</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>28.2763869811097</v>
+        <v>26.5049643588442</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>36.2711314791445</v>
+        <v>36.1720912274224</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>197.244843775436</v>
+        <v>197.192162119688</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>336.638348822553</v>
+        <v>334.745879172091</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>451.271232897785</v>
+        <v>451.267049604244</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>240.911545889576</v>
+        <v>240.911684668836</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>86.4738213462656</v>
+        <v>85.412428754857</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-90.8638744415955</v>
+        <v>-97.7992201190405</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>27.4470370880699</v>
+        <v>25.5655104710044</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>36.1117379995955</v>
+        <v>36.0106127922756</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>188.844756060364</v>
+        <v>188.793982335113</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>334.13585771218</v>
+        <v>332.305850697726</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>442.298037807893</v>
+        <v>442.293614174927</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>238.005844149178</v>
+        <v>238.006262197211</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>89.1183756368606</v>
+        <v>87.1901523308351</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-86.2920047243501</v>
+        <v>-91.5619655878446</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>26.1133992821092</v>
+        <v>24.2792252365567</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>36.48154231912</v>
+        <v>36.3746960507678</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>179.294202775676</v>
+        <v>179.256291647917</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>332.482691309509</v>
+        <v>330.467907396859</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>492.566225264578</v>
+        <v>492.561625978092</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>235.072308322683</v>
+        <v>235.072978068695</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>88.2496251213833</v>
+        <v>85.4056393258357</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-81.6176079681048</v>
+        <v>-86.9622921467061</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>25.7688105337129</v>
+        <v>23.9089664130682</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>35.358482624832</v>
+        <v>35.2499911292894</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>167.740874422917</v>
+        <v>167.704324312291</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>303.417036108835</v>
+        <v>301.701373130042</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>473.332763174784</v>
+        <v>473.32822738743</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>227.231743482091</v>
+        <v>227.232642417811</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>83.7308240553507</v>
+        <v>79.9975551765172</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-76.974989742275</v>
+        <v>-77.0329611143108</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>26.2759911379614</v>
+        <v>24.5202342336627</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>35.1589199978114</v>
+        <v>35.0622297182734</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>157.328007062204</v>
+        <v>157.294510593646</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>286.489711842158</v>
+        <v>284.880259747421</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>442.99895037164</v>
+        <v>442.994692631612</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>223.762243397568</v>
+        <v>223.763422960164</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>76.3843944976098</v>
+        <v>71.763510065904</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-74.4106005232653</v>
+        <v>-74.8185400492331</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>23.1225585315655</v>
+        <v>21.5925912708821</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>35.3945448239723</v>
+        <v>35.3150632041949</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>157.949802456291</v>
+        <v>157.863779594496</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>303.159116738438</v>
+        <v>301.421515091107</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>475.439341085512</v>
+        <v>475.394718858795</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>224.043210992978</v>
+        <v>224.04833725244</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>79.5994522005381</v>
+        <v>74.3333311036843</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-78.716244304451</v>
+        <v>-78.4989346057443</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>22.9789327418441</v>
+        <v>20.9691446526854</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>34.6059727447352</v>
+        <v>34.5403603189885</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>153.528910018259</v>
+        <v>153.447578518498</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>302.105428087333</v>
+        <v>300.36808235227</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>536.60156952299</v>
+        <v>536.552532268681</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>219.104355803204</v>
+        <v>219.109730431891</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>81.260590092327</v>
+        <v>75.073605095359</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-77.689726624513</v>
+        <v>-77.6783248825546</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>21.8801854163063</v>
+        <v>19.9553968978761</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>34.1993952212887</v>
+        <v>34.1501521146203</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>146.565322737196</v>
+        <v>146.516575134054</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>301.867268910393</v>
+        <v>300.032875339685</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>583.338407803385</v>
+        <v>583.288030070252</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>219.889477416506</v>
+        <v>219.895031615592</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>83.7335489344825</v>
+        <v>76.3439518407401</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-80.6125572024273</v>
+        <v>-81.5922252380788</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>22.1332957846774</v>
+        <v>19.9974876840365</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>34.4856162845285</v>
+        <v>34.4518981795203</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>150.100880828375</v>
+        <v>150.028974410054</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>306.954360480334</v>
+        <v>305.198109700446</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>585.297384381474</v>
+        <v>585.252422952475</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>216.914227751393</v>
+        <v>216.919914693274</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>87.9288787127938</v>
+        <v>79.622308694745</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-73.3594900478168</v>
+        <v>-75.0836802645168</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>21.8652866845616</v>
+        <v>20.0964456306825</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>34.0907147840799</v>
+        <v>34.0719267047401</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>142.732017017573</v>
+        <v>142.650246392167</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>299.383046863859</v>
+        <v>297.713137572112</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>554.677615898208</v>
+        <v>554.61456968904</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>211.879600365455</v>
+        <v>211.886383825569</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>90.3925939922194</v>
+        <v>80.8417111680081</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-69.7134579849393</v>
+        <v>-69.3505476407459</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>20.9077597577386</v>
+        <v>18.933475310656</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>33.8717159270211</v>
+        <v>33.8697132766626</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>139.940068809199</v>
+        <v>139.858612286191</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>290.129324470895</v>
+        <v>288.251020770336</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>529.184436042526</v>
+        <v>529.148566036238</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>210.56051502214</v>
+        <v>210.566406862348</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>91.3475277407544</v>
+        <v>81.1412871772773</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-63.8544431959443</v>
+        <v>-63.8561154452921</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>20.6003214617367</v>
+        <v>18.9602346675434</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>33.9077606248613</v>
+        <v>33.9192125437396</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>141.733849567736</v>
+        <v>141.641712234056</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>276.325725501729</v>
+        <v>274.505536124401</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>523.933823619278</v>
+        <v>524.055909321061</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>208.713395752433</v>
+        <v>208.720325669573</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>93.3702120304408</v>
+        <v>82.4560833459807</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-60.0096654967198</v>
+        <v>-59.2534532155219</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>19.6049278955575</v>
+        <v>17.7155565245353</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>34.0236010519749</v>
+        <v>33.8458362228367</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>145.155978629582</v>
+        <v>144.955119226964</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>272.401277652379</v>
+        <v>270.719729030849</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>510.363626576545</v>
+        <v>510.402889381618</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>206.874233303091</v>
+        <v>206.932378834826</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>95.3628942339265</v>
+        <v>84.0192726010224</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-63.5131192767172</v>
+        <v>-62.4779937128976</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>19.1216485672813</v>
+        <v>17.3016029554119</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>33.7808200434976</v>
+        <v>33.1413154686973</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>142.371407542732</v>
+        <v>142.688015447116</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>269.674794891406</v>
+        <v>267.607763168582</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>472.650954415167</v>
+        <v>472.071817619055</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>204.613045748731</v>
+        <v>204.460413942513</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>95.7320386310265</v>
+        <v>84.0078507315518</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-62.8350433825753</v>
+        <v>-61.9228101967665</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>19.7913000613665</v>
+        <v>17.9673090029502</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>33.7042981371164</v>
+        <v>33.1180190837787</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>141.247996617827</v>
+        <v>141.912184190385</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>262.256241497424</v>
+        <v>259.85210375126</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>449.676002190742</v>
+        <v>449.597233299147</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>200.589272148646</v>
+        <v>200.328794238078</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>96.1519239470017</v>
+        <v>83.8335340451522</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-57.2610594096037</v>
+        <v>-56.5356477212316</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>19.2912625527922</v>
+        <v>17.6399334547378</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>33.8309796365125</v>
+        <v>33.1344541537065</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>141.209813338783</v>
+        <v>141.564392896601</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>235.007120346008</v>
+        <v>232.793284528346</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>437.988079990679</v>
+        <v>437.913212775776</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>177.974116574916</v>
+        <v>177.977824482773</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>95.1616953407142</v>
+        <v>82.323175358774</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-58.3063673692901</v>
+        <v>-58.4600298886797</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>18.0344005772953</v>
+        <v>16.4612787045037</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>33.9061483793331</v>
+        <v>33.2006629502002</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>135.540149702448</v>
+        <v>136.041341238348</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>252.254930765519</v>
+        <v>249.757953123043</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>444.569181652441</v>
+        <v>444.296947457854</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>179.309797262239</v>
+        <v>179.461927405649</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>97.0449602500399</v>
+        <v>83.947256180155</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-58.2720117481732</v>
+        <v>-57.5247082728808</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>18.341050485043</v>
+        <v>16.7710491655067</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>33.5095278643526</v>
+        <v>32.646621579519</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>128.318380397373</v>
+        <v>129.31645198457</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>1.16562997624012</v>
+        <v>1.16805278511048</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>236.277974892447</v>
+        <v>231.590995290716</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>436.907197845808</v>
+        <v>436.360216471193</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>186.509636591392</v>
+        <v>186.114290091727</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>93.4257728063612</v>
+        <v>80.1799068224535</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-53.1748058110466</v>
+        <v>-51.9517645931121</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>17.5235738981636</v>
+        <v>16.6656494297952</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>32.3649888809246</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>122.420673919123</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.13802504644795</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>224.503757227396</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>411.461260426329</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>185.015008007777</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>76.129615249667</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-50.2008241641813</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>16.0995846983625</v>
       </c>
     </row>
   </sheetData>
